--- a/bioSample/bioSample_869.xlsx
+++ b/bioSample/bioSample_869.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>
